--- a/Fecha de examenes.xlsx
+++ b/Fecha de examenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Primer-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95074AB-4EBA-4666-B02F-6A2EEA1252B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9471E064-4BD6-4651-B563-AE119DA97436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A33A527-33BC-42D7-B26D-686D44EDAEC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>VII</t>
   </si>
@@ -109,13 +109,16 @@
   </si>
   <si>
     <t>Bryan Enrique López Pérez</t>
+  </si>
+  <si>
+    <t>FINALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +138,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -180,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -199,6 +210,12 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,14 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E139D-5744-4354-92B5-0D91DDA79420}">
-  <dimension ref="E9:L15"/>
+  <dimension ref="E9:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="12" max="12" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,7 +725,214 @@
         <v>27</v>
       </c>
     </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="1">
+        <v>945</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="1">
+        <v>745</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="1">
+        <v>943</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="1">
+        <v>935</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="1">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="1">
+        <v>749</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="1">
+        <v>747</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E17:L18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>